--- a/biology/Virologie/VIH_en_Haïti/VIH_en_Haïti.xlsx
+++ b/biology/Virologie/VIH_en_Haïti/VIH_en_Haïti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VIH_en_Ha%C3%AFti</t>
+          <t>VIH_en_Haïti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,17 +490,19 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sida à Haïti est considéré comme une épidémie importante.
-Dans les Caraïbes, Haïti représente 48 % des cas de VIH qui y figurent, de plus, son nombre équivaut à plus du double du taux de la République dominicaine et notamment quatre fois le taux de la Jamaïque[1]. Le VIH affecte les femmes et les hommes de tout âge. Au niveau de Haïti les jeunes et les femmes sont parmi les plus vulnérables et les plus touchés par le virus[2].
+Dans les Caraïbes, Haïti représente 48 % des cas de VIH qui y figurent, de plus, son nombre équivaut à plus du double du taux de la République dominicaine et notamment quatre fois le taux de la Jamaïque. Le VIH affecte les femmes et les hommes de tout âge. Au niveau de Haïti les jeunes et les femmes sont parmi les plus vulnérables et les plus touchés par le virus.
 Le virus de l’immunodéficience humaine (VIH) est l’agent pathogène qui cause le Syndrome d'immunodéficience acquise (sida). Ce dernier est une infection qui diminue la capacité du corps à se défendre contre d'autres infections.
 L’infection pose de graves risques niveau santé et le sida peut être fatal pour les personnes infectées.
 Le virus est un rétrovirus qui attaque les lymphocytes T, une catégorie de globules blancs, essentielle pour le système immunitaire. Il est possible de se protéger contre le virus. Des traitements efficaces sont disponibles et gratuits à Haïti.
 Une personne infectée peut vivre une vie longue et saine, si elle se conforme au traitement antirétroviral (TAR) pour la suppression de la réplication du virus.
 Malgré l'existence de mesures efficaces pour la prévention et le traitement du VIH, un niveau d’éducation insuffisant voire un manque d’accès à l'éducation posent des défis pour le ministère de Santé Publique et de la Population en Haïti.
-Dans le gouvernement Haïtien, le Programme National de Lutte contre le Sida (PNLS)[3] a la responsabilité du contrôle de l’épidémie et il coordonne les interventions. Le PEPFAR (President's Emergency Plan for AIDS Relief), le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme (FMSTP) et le Programme commun des Nations unies sur le VIH/SIDA (ONUSIDA) sont parmi les organisations les plus importantes fournissant la plupart des matériels de dépistage et les médicaments antirétroviraux (ARV) dans le système de santé Haïtien.
+Dans le gouvernement Haïtien, le Programme National de Lutte contre le Sida (PNLS) a la responsabilité du contrôle de l’épidémie et il coordonne les interventions. Le PEPFAR (President's Emergency Plan for AIDS Relief), le Fonds mondial de lutte contre le sida, la tuberculose et le paludisme (FMSTP) et le Programme commun des Nations unies sur le VIH/SIDA (ONUSIDA) sont parmi les organisations les plus importantes fournissant la plupart des matériels de dépistage et les médicaments antirétroviraux (ARV) dans le système de santé Haïtien.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VIH_en_Ha%C3%AFti</t>
+          <t>VIH_en_Haïti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Transmission et prévention</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le VIH est transmissible par le sang, les sécrétions vaginales, le sperme, les sécrétions pré-éjaculatoires, les secrétions rectales et le lait maternel. On ne peut pas acquérir le VIH à travers la salive (en embrassant), les larmes ou l’urine.
 Les trois modes de contaminations sont :
@@ -530,10 +544,10 @@
 Lors d'une transfusion de produit sanguin.
 Transmission entre la mère et l'enfant pendant la grossesse, l’accouchement, et/ou l’allaitement.
 Le VIH n'est pas transmissible par :
-Contact buccal tel qu'un baiser sur la bouche[4],[5].
-Le partage de nourriture ou de boisson avec une personne infectée[5].
-L'utilisation de la même toilette qu’une personne infectée[4].
-Au niveau de la population, ce virus est l'un des plus difficiles à gérer pour plusieurs raisons. Les personnes infectées sont parfois inconscientes de leurs statuts et certains de ceux qui connaissent leurs statuts, ne prennent pas ou n'adhèrent pas au traitement. Ces causes peuvent entrainer de futures transmissions. En 2014, 62 602 personnes recevaient le traitement sur ± 140 000 infectées, ce qui représente seulement 44,7 %[6] des personnes infectées. En Haïti, il existe une forte stigmatisation contre les personnes infectées, il est encore tabou de discuter ouvertement de ce sujet dans la communauté, les écoles, et même dans les centres de santé.
+Contact buccal tel qu'un baiser sur la bouche,.
+Le partage de nourriture ou de boisson avec une personne infectée.
+L'utilisation de la même toilette qu’une personne infectée.
+Au niveau de la population, ce virus est l'un des plus difficiles à gérer pour plusieurs raisons. Les personnes infectées sont parfois inconscientes de leurs statuts et certains de ceux qui connaissent leurs statuts, ne prennent pas ou n'adhèrent pas au traitement. Ces causes peuvent entrainer de futures transmissions. En 2014, 62 602 personnes recevaient le traitement sur ± 140 000 infectées, ce qui représente seulement 44,7 % des personnes infectées. En Haïti, il existe une forte stigmatisation contre les personnes infectées, il est encore tabou de discuter ouvertement de ce sujet dans la communauté, les écoles, et même dans les centres de santé.
 Pour réduire le risque de transmission au fœtus et nouveau-né, il est primordial que la mère adhère au traitement pendant la grossesse. Un accouchement dans un centre de santé qualifié diminue aussi le risque de transmission, et un accouchement par césarienne, si indiqué, diminue le risque de transmission.
 </t>
         </is>
@@ -545,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VIH_en_Ha%C3%AFti</t>
+          <t>VIH_en_Haïti</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,9 +577,11 @@
           <t>Prévalence en Haïti</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La population d’Haïti en 2014 était 10.57 million, avec environ 140 000 personnes vivants avec le VIH (PVVIH). En 2016, le taux de prévalence de VIH/Sida de 1,8 %. Chaque années plus de 7 200 Haïtiens meurent à cause du Sida [8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population d’Haïti en 2014 était 10.57 million, avec environ 140 000 personnes vivants avec le VIH (PVVIH). En 2016, le taux de prévalence de VIH/Sida de 1,8 %. Chaque années plus de 7 200 Haïtiens meurent à cause du Sida .
 </t>
         </is>
       </c>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VIH_en_Ha%C3%AFti</t>
+          <t>VIH_en_Haïti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,13 +610,11 @@
           <t>Dépistage pour le VIH en Haïti</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Haïti, le test rapide et le test virologique (PCR - réaction en chaîne de la polymérase) sont disponibles et gratuits dans les centres de santé. Le MSPP liste tous les sites cliniques dans le pays, dont la plupart offrent ces tests.
-Dépistage Volontaire
-Le dépistage volontaire pour le VIH implique généralement deux séances de conseils, l’une avant le test VIH et la seconde après le test VIH lorsque les résultats sont communiqués aux patients. Les centres de santé utilisent souvent des tests de dépistage rapide qui nécessitent seulement une goutte de sang. Ces tests sont bon marché, requièrent une formation minimale et fournissent des résultats précis en 15 minutes. Le test est largement disponible en Haïti dans les hôpitaux, les cliniques et les laboratoires du gouvernement et du secteur privé. Dans la majorité des hôpitaux et des centres cliniques, le dépistage du VIH est disponible sans frais. Le dépistage volontaire est conseillé pour tous les enfants de plus de 18 mois, les adolescents et les adultes.
-Dépistage à la naissance et Prévention de Transmission Mère-Enfant
-Toutes les femmes enceintes qui ont un suivi clinique sont systématiquement dépistées pour le VIH par test rapide. De la même manière, tous les enfants nés de mère séropositives sont testés juste après la naissance afin de commencer le traitement dès que possible. Une série de tests est utilisée pour confirmer la présence ou absence du virus chez le nouveau-né.
 </t>
         </is>
       </c>
@@ -611,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VIH_en_Ha%C3%AFti</t>
+          <t>VIH_en_Haïti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,10 +640,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dépistage pour le VIH en Haïti</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dépistage Volontaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dépistage volontaire pour le VIH implique généralement deux séances de conseils, l’une avant le test VIH et la seconde après le test VIH lorsque les résultats sont communiqués aux patients. Les centres de santé utilisent souvent des tests de dépistage rapide qui nécessitent seulement une goutte de sang. Ces tests sont bon marché, requièrent une formation minimale et fournissent des résultats précis en 15 minutes. Le test est largement disponible en Haïti dans les hôpitaux, les cliniques et les laboratoires du gouvernement et du secteur privé. Dans la majorité des hôpitaux et des centres cliniques, le dépistage du VIH est disponible sans frais. Le dépistage volontaire est conseillé pour tous les enfants de plus de 18 mois, les adolescents et les adultes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VIH_en_Haïti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/VIH_en_Ha%C3%AFti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dépistage pour le VIH en Haïti</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dépistage à la naissance et Prévention de Transmission Mère-Enfant</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les femmes enceintes qui ont un suivi clinique sont systématiquement dépistées pour le VIH par test rapide. De la même manière, tous les enfants nés de mère séropositives sont testés juste après la naissance afin de commencer le traitement dès que possible. Une série de tests est utilisée pour confirmer la présence ou absence du virus chez le nouveau-né.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VIH_en_Haïti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/VIH_en_Ha%C3%AFti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Traitement et Gestion de VIH/Sida en Haïti</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Normalement, la gestion de VIH/Sida inclut l’utilisation de multiples médicaments, plus communément nommés les traitements antirétroviraux (TAR ou ARV). Plusieurs classes de drogues agissent sur les  différentes étapes du cycle d’infection du virus. Le traitement le plus commun s’appelle la trithérapie. La thérapie réduit la présence du virus dans le sang, maintient le bon fonctionnement du système immunitaire et prévient les infections opportunistes qui peuvent causer la mort. En jonction avec le TAR, les antibiotiques, antiviraux, et antifongiques sont utilisés pour traiter les infections opportunistes qui peuvent survenir. L'augmentation de l'accessibilité et la disponibilité des ARV à travers le monde diminuent la mortalité et font du VIH une condition chronique.
